--- a/biology/Botanique/James_Veitch/James_Veitch.xlsx
+++ b/biology/Botanique/James_Veitch/James_Veitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Veitch, né le 24 mai 1815 et mort le 10 septembre 1869, est un horticulteur anglais qui était le troisième horticulteur de sa lignée, propriétaire des pépinières Veitch[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Veitch, né le 24 mai 1815 et mort le 10 septembre 1869, est un horticulteur anglais qui était le troisième horticulteur de sa lignée, propriétaire des pépinières Veitch.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Veitch était le fils de l'horticulteur James Veitch et petit-fils de John Veitch, fondateur de cette lignée de pépiniéristes. Après avoir été formé par son père et son grand-père dans leur domaine de Killerton, James junior est envoyé en apprentissage à Londres auprès de pépiniéristes pendant deux ans. À son retour dans le Devon, James Veitch aide son père qui agrandit sa pépinière d'Exeter. En reconnaissance de son talent, son père en fait son partenaire en affaires en 1838.
 En 1838, James Veitch épouse la fille d'un fermier de Poltimore, Harriott Gould. Le ménage s'installe dans leur villa du nom de Gras Lawn, près de leur pépinière de Mount Radford à Exeter. Les visiteurs peuvent admirer encore le sequoiadendron planté par lui qui orne le jardin de devant de leur ancienne résidence de Barrack Road.
@@ -547,7 +561,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La James Veitch Medal de la Royal Horticultural Society lui doit son nom.
 La rose 'James Veitch' (1864) lui est dédiée.</t>
